--- a/PIlist.xlsx
+++ b/PIlist.xlsx
@@ -22,19 +22,43 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>PIs</t>
   </si>
   <si>
-    <t>martin ruskowski</t>
+    <t>Busse, Laura</t>
+  </si>
+  <si>
+    <t>Hüllermeier, Eyke</t>
+  </si>
+  <si>
+    <t>Kreuter, Frauke</t>
+  </si>
+  <si>
+    <t>Kutyniok, Gitta</t>
+  </si>
+  <si>
+    <t>Ommer, Björn</t>
+  </si>
+  <si>
+    <t>Plank, Barbara</t>
+  </si>
+  <si>
+    <t>Schütze, Hinrich</t>
+  </si>
+  <si>
+    <t>Bischl, Bernd</t>
+  </si>
+  <si>
+    <t>Schmidt, Albrecht 0001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -60,6 +84,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF1D1C1D"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -103,24 +134,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -399,7 +423,7 @@
   <dimension ref="A1:B206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -416,33 +440,49 @@
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3"/>
-    </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4"/>
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5"/>
+      <c r="A5" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6"/>
+      <c r="A6" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7"/>
+      <c r="A7" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8"/>
+      <c r="A8" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9"/>
+      <c r="A9" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10"/>
+      <c r="A10" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11"/>

--- a/PIlist.xlsx
+++ b/PIlist.xlsx
@@ -22,36 +22,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>PIs</t>
   </si>
   <si>
-    <t>Busse, Laura</t>
+    <t>Andreas Butz</t>
   </si>
   <si>
-    <t>Hüllermeier, Eyke</t>
+    <t>Alexander M. Fraser</t>
   </si>
   <si>
-    <t>Kreuter, Frauke</t>
+    <t>Michael Ingrisch</t>
   </si>
   <si>
-    <t>Kutyniok, Gitta</t>
+    <t>Claudia Linnhoff-Popien</t>
   </si>
   <si>
-    <t>Ommer, Björn</t>
+    <t>Sven Nyholm</t>
   </si>
   <si>
-    <t>Plank, Barbara</t>
+    <t>Katia Parodi</t>
   </si>
   <si>
-    <t>Schütze, Hinrich</t>
+    <t>Holger Rauhut</t>
   </si>
   <si>
-    <t>Bischl, Bernd</t>
+    <t>Thomas Seidl 0001</t>
   </si>
   <si>
-    <t>Schmidt, Albrecht 0001</t>
+    <t>Volker Tresp</t>
+  </si>
+  <si>
+    <t>Kristian Unger</t>
   </si>
 </sst>
 </file>
@@ -86,14 +89,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF1D1C1D"/>
-      <name val="Arial"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -104,6 +107,11 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -131,17 +139,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -423,7 +433,7 @@
   <dimension ref="A1:B206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -441,51 +451,53 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>7</v>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12"/>
